--- a/results/mp/tinybert/home-spam/confidence/84/stop-words-topk-masking-0.5/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/home-spam/confidence/84/stop-words-topk-masking-0.5/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="137">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,55 +43,55 @@
     <t>poorly</t>
   </si>
   <si>
+    <t>disappointing</t>
+  </si>
+  <si>
     <t>useless</t>
   </si>
   <si>
-    <t>disappointing</t>
-  </si>
-  <si>
-    <t>defective</t>
+    <t>returned</t>
+  </si>
+  <si>
+    <t>stopped</t>
   </si>
   <si>
     <t>disappointed</t>
   </si>
   <si>
-    <t>stopped</t>
-  </si>
-  <si>
     <t>poor</t>
   </si>
   <si>
-    <t>returned</t>
-  </si>
-  <si>
-    <t>junk</t>
-  </si>
-  <si>
     <t>however</t>
   </si>
   <si>
+    <t>difficult</t>
+  </si>
+  <si>
+    <t>smaller</t>
+  </si>
+  <si>
+    <t>waste</t>
+  </si>
+  <si>
     <t>broken</t>
   </si>
   <si>
-    <t>difficult</t>
-  </si>
-  <si>
-    <t>waste</t>
-  </si>
-  <si>
     <t>broke</t>
   </si>
   <si>
-    <t>smaller</t>
-  </si>
-  <si>
     <t>months</t>
   </si>
   <si>
+    <t>cheap</t>
+  </si>
+  <si>
     <t>plastic</t>
   </si>
   <si>
-    <t>cheap</t>
+    <t>small</t>
+  </si>
+  <si>
+    <t>work</t>
   </si>
   <si>
     <t>product</t>
@@ -112,340 +112,313 @@
     <t>love</t>
   </si>
   <si>
+    <t>salad</t>
+  </si>
+  <si>
     <t>perfect</t>
   </si>
   <si>
     <t>best</t>
   </si>
   <si>
+    <t>beautiful</t>
+  </si>
+  <si>
+    <t>pleased</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>awesome</t>
+  </si>
+  <si>
+    <t>cakes</t>
+  </si>
+  <si>
+    <t>amazing</t>
+  </si>
+  <si>
+    <t>glad</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>cake</t>
+  </si>
+  <si>
+    <t>sturdy</t>
+  </si>
+  <si>
+    <t>loved</t>
+  </si>
+  <si>
+    <t>comfortable</t>
+  </si>
+  <si>
+    <t>husband</t>
+  </si>
+  <si>
+    <t>daughter</t>
+  </si>
+  <si>
     <t>thank</t>
   </si>
   <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>pleased</t>
-  </si>
-  <si>
-    <t>beautiful</t>
-  </si>
-  <si>
-    <t>amazing</t>
-  </si>
-  <si>
-    <t>awesome</t>
-  </si>
-  <si>
-    <t>daughter</t>
-  </si>
-  <si>
-    <t>loved</t>
-  </si>
-  <si>
-    <t>cakes</t>
+    <t>wife</t>
+  </si>
+  <si>
+    <t>cooke</t>
+  </si>
+  <si>
+    <t>ever</t>
+  </si>
+  <si>
+    <t>christmas</t>
+  </si>
+  <si>
+    <t>gift</t>
+  </si>
+  <si>
+    <t>family</t>
+  </si>
+  <si>
+    <t>perfectly</t>
   </si>
   <si>
     <t>cheese</t>
   </si>
   <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>cake</t>
-  </si>
-  <si>
-    <t>salad</t>
-  </si>
-  <si>
-    <t>cooke</t>
-  </si>
-  <si>
-    <t>sturdy</t>
-  </si>
-  <si>
-    <t>family</t>
+    <t>nice</t>
   </si>
   <si>
     <t>pie</t>
   </si>
   <si>
-    <t>wife</t>
-  </si>
-  <si>
     <t>bread</t>
   </si>
   <si>
-    <t>ever</t>
-  </si>
-  <si>
-    <t>christmas</t>
-  </si>
-  <si>
-    <t>gift</t>
-  </si>
-  <si>
-    <t>perfectly</t>
-  </si>
-  <si>
-    <t>husband</t>
+    <t>potatoes</t>
+  </si>
+  <si>
+    <t>easy</t>
   </si>
   <si>
     <t>years</t>
   </si>
   <si>
-    <t>easy</t>
-  </si>
-  <si>
-    <t>glad</t>
+    <t>kids</t>
+  </si>
+  <si>
+    <t>ze</t>
+  </si>
+  <si>
+    <t>kitchen</t>
+  </si>
+  <si>
+    <t>old</t>
+  </si>
+  <si>
+    <t>popcorn</t>
+  </si>
+  <si>
+    <t>highly</t>
+  </si>
+  <si>
+    <t>always</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>day</t>
+  </si>
+  <si>
+    <t>tea</t>
+  </si>
+  <si>
+    <t>thanks</t>
   </si>
   <si>
     <t>cooking</t>
   </si>
   <si>
+    <t>cook</t>
+  </si>
+  <si>
+    <t>keeps</t>
+  </si>
+  <si>
+    <t>works</t>
+  </si>
+  <si>
     <t>nicely</t>
   </si>
   <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>cooks</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>son</t>
-  </si>
-  <si>
-    <t>potatoes</t>
-  </si>
-  <si>
-    <t>kitchen</t>
-  </si>
-  <si>
-    <t>old</t>
-  </si>
-  <si>
-    <t>keeps</t>
-  </si>
-  <si>
-    <t>popcorn</t>
-  </si>
-  <si>
-    <t>tea</t>
-  </si>
-  <si>
-    <t>rice</t>
-  </si>
-  <si>
-    <t>comfortable</t>
-  </si>
-  <si>
-    <t>day</t>
-  </si>
-  <si>
-    <t>kids</t>
+    <t>well</t>
+  </si>
+  <si>
+    <t>cream</t>
+  </si>
+  <si>
+    <t>pan</t>
+  </si>
+  <si>
+    <t>clean</t>
   </si>
   <si>
     <t>baking</t>
   </si>
   <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>highly</t>
-  </si>
-  <si>
-    <t>always</t>
-  </si>
-  <si>
-    <t>ze</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>works</t>
-  </si>
-  <si>
-    <t>cook</t>
-  </si>
-  <si>
-    <t>cream</t>
-  </si>
-  <si>
-    <t>pan</t>
+    <t>new</t>
   </si>
   <si>
     <t>recommend</t>
   </si>
   <si>
+    <t>far</t>
+  </si>
+  <si>
+    <t>quality</t>
+  </si>
+  <si>
+    <t>also</t>
+  </si>
+  <si>
+    <t>every</t>
+  </si>
+  <si>
+    <t>making</t>
+  </si>
+  <si>
+    <t>w</t>
+  </si>
+  <si>
+    <t>makes</t>
+  </si>
+  <si>
+    <t>exactly</t>
+  </si>
+  <si>
+    <t>maker</t>
+  </si>
+  <si>
     <t>gr</t>
   </si>
   <si>
-    <t>every</t>
-  </si>
-  <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>clean</t>
+    <t>many</t>
+  </si>
+  <si>
+    <t>coffee</t>
+  </si>
+  <si>
+    <t>things</t>
   </si>
   <si>
     <t>wish</t>
   </si>
   <si>
-    <t>simple</t>
-  </si>
-  <si>
-    <t>everything</t>
-  </si>
-  <si>
-    <t>maker</t>
+    <t>worth</t>
+  </si>
+  <si>
+    <t>dish</t>
+  </si>
+  <si>
+    <t>ice</t>
+  </si>
+  <si>
+    <t>brand</t>
+  </si>
+  <si>
+    <t>hot</t>
+  </si>
+  <si>
+    <t>fast</t>
   </si>
   <si>
     <t>bought</t>
   </si>
   <si>
-    <t>quality</t>
-  </si>
-  <si>
-    <t>makes</t>
-  </si>
-  <si>
-    <t>exactly</t>
-  </si>
-  <si>
-    <t>coffee</t>
-  </si>
-  <si>
-    <t>brand</t>
+    <t>cup</t>
+  </si>
+  <si>
+    <t>little</t>
+  </si>
+  <si>
+    <t>purchased</t>
+  </si>
+  <si>
+    <t>really</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>one</t>
+  </si>
+  <si>
+    <t>make</t>
+  </si>
+  <si>
+    <t>last</t>
+  </si>
+  <si>
+    <t>job</t>
+  </si>
+  <si>
+    <t>like</t>
   </si>
   <si>
     <t>ox</t>
   </si>
   <si>
-    <t>w</t>
-  </si>
-  <si>
-    <t>anyone</t>
-  </si>
-  <si>
-    <t>many</t>
-  </si>
-  <si>
-    <t>also</t>
-  </si>
-  <si>
-    <t>hot</t>
-  </si>
-  <si>
-    <t>make</t>
-  </si>
-  <si>
-    <t>dish</t>
-  </si>
-  <si>
-    <t>food</t>
-  </si>
-  <si>
-    <t>making</t>
-  </si>
-  <si>
-    <t>worth</t>
-  </si>
-  <si>
-    <t>far</t>
-  </si>
-  <si>
-    <t>little</t>
-  </si>
-  <si>
-    <t>one</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>really</t>
-  </si>
-  <si>
-    <t>fast</t>
-  </si>
-  <si>
-    <t>last</t>
-  </si>
-  <si>
-    <t>cup</t>
+    <t>better</t>
+  </si>
+  <si>
+    <t>got</t>
+  </si>
+  <si>
+    <t>pot</t>
+  </si>
+  <si>
+    <t>easily</t>
   </si>
   <si>
     <t>long</t>
   </si>
   <si>
-    <t>big</t>
+    <t>time</t>
+  </si>
+  <si>
+    <t>use</t>
+  </si>
+  <si>
+    <t>right</t>
+  </si>
+  <si>
+    <t>buy</t>
+  </si>
+  <si>
+    <t>much</t>
+  </si>
+  <si>
+    <t>made</t>
+  </si>
+  <si>
+    <t>handle</t>
   </si>
   <si>
     <t>used</t>
   </si>
   <si>
-    <t>lot</t>
-  </si>
-  <si>
-    <t>purchased</t>
-  </si>
-  <si>
-    <t>pot</t>
-  </si>
-  <si>
-    <t>purchase</t>
-  </si>
-  <si>
-    <t>job</t>
-  </si>
-  <si>
-    <t>use</t>
-  </si>
-  <si>
-    <t>time</t>
-  </si>
-  <si>
-    <t>got</t>
-  </si>
-  <si>
-    <t>buy</t>
-  </si>
-  <si>
-    <t>first</t>
-  </si>
-  <si>
-    <t>knife</t>
-  </si>
-  <si>
-    <t>handle</t>
-  </si>
-  <si>
-    <t>better</t>
+    <t>price</t>
   </si>
   <si>
     <t>item</t>
   </si>
   <si>
-    <t>made</t>
-  </si>
-  <si>
-    <t>work</t>
-  </si>
-  <si>
-    <t>much</t>
-  </si>
-  <si>
     <t>size</t>
-  </si>
-  <si>
-    <t>price</t>
   </si>
   <si>
     <t>would</t>
@@ -809,7 +782,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q120"/>
+  <dimension ref="A1:Q112"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -820,7 +793,7 @@
         <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -928,13 +901,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="C4">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="D4">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -946,19 +919,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>29</v>
       </c>
       <c r="K4">
-        <v>0.921875</v>
+        <v>0.9140625</v>
       </c>
       <c r="L4">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="M4">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -970,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -978,13 +951,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.7037037037037037</v>
+        <v>0.75</v>
       </c>
       <c r="C5">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="D5">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -996,7 +969,7 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>30</v>
@@ -1028,13 +1001,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.6956521739130435</v>
+        <v>0.4545454545454545</v>
       </c>
       <c r="C6">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="D6">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -1046,19 +1019,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>7</v>
+        <v>54</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>31</v>
       </c>
       <c r="K6">
-        <v>0.8761609907120743</v>
+        <v>0.8730650154798761</v>
       </c>
       <c r="L6">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="M6">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -1070,7 +1043,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1078,13 +1051,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.5038759689922481</v>
+        <v>0.4528301886792453</v>
       </c>
       <c r="C7">
-        <v>65</v>
+        <v>24</v>
       </c>
       <c r="D7">
-        <v>65</v>
+        <v>24</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1096,19 +1069,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>64</v>
+        <v>29</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>32</v>
       </c>
       <c r="K7">
-        <v>0.7322033898305085</v>
+        <v>0.7534246575342466</v>
       </c>
       <c r="L7">
-        <v>216</v>
+        <v>55</v>
       </c>
       <c r="M7">
-        <v>216</v>
+        <v>55</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -1120,7 +1093,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>79</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1128,13 +1101,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.4716981132075472</v>
+        <v>0.4186046511627907</v>
       </c>
       <c r="C8">
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="D8">
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1146,19 +1119,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>28</v>
+        <v>75</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>33</v>
       </c>
       <c r="K8">
-        <v>0.7316017316017316</v>
+        <v>0.7322033898305085</v>
       </c>
       <c r="L8">
-        <v>169</v>
+        <v>216</v>
       </c>
       <c r="M8">
-        <v>169</v>
+        <v>216</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1170,7 +1143,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>62</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1178,13 +1151,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.42</v>
+        <v>0.4</v>
       </c>
       <c r="C9">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D9">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1196,19 +1169,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>34</v>
       </c>
       <c r="K9">
-        <v>0.6888888888888889</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="L9">
-        <v>31</v>
+        <v>168</v>
       </c>
       <c r="M9">
-        <v>31</v>
+        <v>168</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1220,7 +1193,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>14</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1228,37 +1201,37 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.404040404040404</v>
+        <v>0.3246753246753247</v>
       </c>
       <c r="C10">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="D10">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="G10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H10">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>35</v>
       </c>
       <c r="K10">
-        <v>0.6853932584269663</v>
+        <v>0.7045454545454546</v>
       </c>
       <c r="L10">
-        <v>854</v>
+        <v>31</v>
       </c>
       <c r="M10">
-        <v>854</v>
+        <v>31</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1270,7 +1243,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>392</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1278,7 +1251,7 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.3461538461538461</v>
+        <v>0.2647058823529412</v>
       </c>
       <c r="C11">
         <v>18</v>
@@ -1296,19 +1269,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>36</v>
       </c>
       <c r="K11">
-        <v>0.6753246753246753</v>
+        <v>0.6883116883116883</v>
       </c>
       <c r="L11">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M11">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1320,7 +1293,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1328,13 +1301,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.3461538461538461</v>
+        <v>0.2233009708737864</v>
       </c>
       <c r="C12">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D12">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1346,19 +1319,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>51</v>
+        <v>80</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>37</v>
       </c>
       <c r="K12">
-        <v>0.6590909090909091</v>
+        <v>0.6789727126805778</v>
       </c>
       <c r="L12">
-        <v>29</v>
+        <v>846</v>
       </c>
       <c r="M12">
-        <v>29</v>
+        <v>846</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1370,7 +1343,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>15</v>
+        <v>400</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1378,7 +1351,7 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.2777777777777778</v>
+        <v>0.211864406779661</v>
       </c>
       <c r="C13">
         <v>25</v>
@@ -1396,19 +1369,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>65</v>
+        <v>93</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>38</v>
       </c>
       <c r="K13">
-        <v>0.6551724137931034</v>
+        <v>0.6739130434782609</v>
       </c>
       <c r="L13">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="M13">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1420,7 +1393,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1428,13 +1401,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.2205882352941176</v>
+        <v>0.2</v>
       </c>
       <c r="C14">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D14">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1446,19 +1419,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>39</v>
       </c>
       <c r="K14">
-        <v>0.6521739130434783</v>
+        <v>0.65625</v>
       </c>
       <c r="L14">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="M14">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1470,7 +1443,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1478,13 +1451,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.211864406779661</v>
+        <v>0.1945945945945946</v>
       </c>
       <c r="C15">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="D15">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1496,19 +1469,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>93</v>
+        <v>149</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>40</v>
       </c>
       <c r="K15">
-        <v>0.6428571428571429</v>
+        <v>0.6551724137931034</v>
       </c>
       <c r="L15">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="M15">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1520,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>25</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1528,13 +1501,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.2</v>
+        <v>0.1509433962264151</v>
       </c>
       <c r="C16">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="D16">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1546,19 +1519,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>148</v>
+        <v>90</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>41</v>
       </c>
       <c r="K16">
-        <v>0.6338028169014085</v>
+        <v>0.6458333333333334</v>
       </c>
       <c r="L16">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="M16">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1570,7 +1543,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>26</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1578,37 +1551,37 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.1844660194174757</v>
+        <v>0.1443298969072165</v>
       </c>
       <c r="C17">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="D17">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="G17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H17">
-        <v>84</v>
+        <v>166</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>42</v>
       </c>
       <c r="K17">
-        <v>0.59375</v>
+        <v>0.64</v>
       </c>
       <c r="L17">
-        <v>38</v>
+        <v>112</v>
       </c>
       <c r="M17">
-        <v>38</v>
+        <v>112</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1620,7 +1593,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>26</v>
+        <v>63</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1628,37 +1601,37 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.1714285714285714</v>
+        <v>0.1148648648648649</v>
       </c>
       <c r="C18">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D18">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E18">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="F18">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="G18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H18">
-        <v>87</v>
+        <v>131</v>
       </c>
       <c r="J18" s="1" t="s">
         <v>43</v>
       </c>
       <c r="K18">
-        <v>0.5903614457831325</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="L18">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="M18">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1670,7 +1643,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>34</v>
+        <v>40</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1678,37 +1651,37 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.1351351351351351</v>
+        <v>0.0528169014084507</v>
       </c>
       <c r="C19">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D19">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="G19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H19">
-        <v>128</v>
+        <v>269</v>
       </c>
       <c r="J19" s="1" t="s">
         <v>44</v>
       </c>
       <c r="K19">
-        <v>0.5885714285714285</v>
+        <v>0.6047904191616766</v>
       </c>
       <c r="L19">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="M19">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1720,7 +1693,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1728,37 +1701,37 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.1191709844559585</v>
+        <v>0.04857142857142857</v>
       </c>
       <c r="C20">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D20">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="E20">
-        <v>0.08</v>
+        <v>0.55</v>
       </c>
       <c r="F20">
-        <v>0.92</v>
+        <v>0.45</v>
       </c>
       <c r="G20" t="b">
         <v>1</v>
       </c>
       <c r="H20">
-        <v>170</v>
+        <v>333</v>
       </c>
       <c r="J20" s="1" t="s">
         <v>45</v>
       </c>
       <c r="K20">
-        <v>0.5769230769230769</v>
+        <v>0.5915492957746479</v>
       </c>
       <c r="L20">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="M20">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1770,7 +1743,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>44</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1778,37 +1751,37 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.02976995940460081</v>
+        <v>0.02486187845303867</v>
       </c>
       <c r="C21">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D21">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="E21">
-        <v>0.5600000000000001</v>
+        <v>0.7</v>
       </c>
       <c r="F21">
-        <v>0.4399999999999999</v>
+        <v>0.3</v>
       </c>
       <c r="G21" t="b">
         <v>1</v>
       </c>
       <c r="H21">
-        <v>717</v>
+        <v>706</v>
       </c>
       <c r="J21" s="1" t="s">
         <v>46</v>
       </c>
       <c r="K21">
-        <v>0.5753424657534246</v>
+        <v>0.5901639344262295</v>
       </c>
       <c r="L21">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="M21">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1820,7 +1793,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1828,13 +1801,13 @@
         <v>47</v>
       </c>
       <c r="K22">
-        <v>0.5470085470085471</v>
+        <v>0.5614035087719298</v>
       </c>
       <c r="L22">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="M22">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1846,7 +1819,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>53</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1854,13 +1827,13 @@
         <v>48</v>
       </c>
       <c r="K23">
-        <v>0.5329341317365269</v>
+        <v>0.5571428571428572</v>
       </c>
       <c r="L23">
-        <v>89</v>
+        <v>39</v>
       </c>
       <c r="M23">
-        <v>89</v>
+        <v>39</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1872,7 +1845,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>78</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1880,13 +1853,13 @@
         <v>49</v>
       </c>
       <c r="K24">
-        <v>0.5230769230769231</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="L24">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="M24">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1898,7 +1871,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>31</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1906,13 +1879,13 @@
         <v>50</v>
       </c>
       <c r="K25">
-        <v>0.5230769230769231</v>
+        <v>0.5416666666666666</v>
       </c>
       <c r="L25">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="M25">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1924,7 +1897,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1932,13 +1905,13 @@
         <v>51</v>
       </c>
       <c r="K26">
-        <v>0.5138888888888888</v>
+        <v>0.5213675213675214</v>
       </c>
       <c r="L26">
-        <v>37</v>
+        <v>61</v>
       </c>
       <c r="M26">
-        <v>37</v>
+        <v>61</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1950,7 +1923,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>35</v>
+        <v>56</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1958,13 +1931,13 @@
         <v>52</v>
       </c>
       <c r="K27">
-        <v>0.5</v>
+        <v>0.518796992481203</v>
       </c>
       <c r="L27">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="M27">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1976,7 +1949,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>50</v>
+        <v>64</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1984,13 +1957,13 @@
         <v>53</v>
       </c>
       <c r="K28">
-        <v>0.4962406015037594</v>
+        <v>0.5</v>
       </c>
       <c r="L28">
-        <v>66</v>
+        <v>34</v>
       </c>
       <c r="M28">
-        <v>66</v>
+        <v>34</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -2002,7 +1975,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>67</v>
+        <v>34</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2010,13 +1983,13 @@
         <v>54</v>
       </c>
       <c r="K29">
-        <v>0.4852941176470588</v>
+        <v>0.5</v>
       </c>
       <c r="L29">
-        <v>33</v>
+        <v>83</v>
       </c>
       <c r="M29">
-        <v>33</v>
+        <v>83</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -2028,7 +2001,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>35</v>
+        <v>83</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2036,13 +2009,13 @@
         <v>55</v>
       </c>
       <c r="K30">
-        <v>0.4819277108433735</v>
+        <v>0.4923076923076923</v>
       </c>
       <c r="L30">
-        <v>80</v>
+        <v>32</v>
       </c>
       <c r="M30">
-        <v>80</v>
+        <v>32</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -2054,7 +2027,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>86</v>
+        <v>33</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2062,13 +2035,13 @@
         <v>56</v>
       </c>
       <c r="K31">
-        <v>0.4605263157894737</v>
+        <v>0.4736842105263158</v>
       </c>
       <c r="L31">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M31">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -2080,7 +2053,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2088,13 +2061,13 @@
         <v>57</v>
       </c>
       <c r="K32">
-        <v>0.456140350877193</v>
+        <v>0.4698795180722892</v>
       </c>
       <c r="L32">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="M32">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2106,7 +2079,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>31</v>
+        <v>44</v>
       </c>
     </row>
     <row r="33" spans="10:17">
@@ -2114,13 +2087,13 @@
         <v>58</v>
       </c>
       <c r="K33">
-        <v>0.4474708171206226</v>
+        <v>0.4558823529411765</v>
       </c>
       <c r="L33">
-        <v>115</v>
+        <v>186</v>
       </c>
       <c r="M33">
-        <v>115</v>
+        <v>186</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2132,7 +2105,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>142</v>
+        <v>222</v>
       </c>
     </row>
     <row r="34" spans="10:17">
@@ -2140,13 +2113,13 @@
         <v>59</v>
       </c>
       <c r="K34">
-        <v>0.4191780821917808</v>
+        <v>0.4461538461538462</v>
       </c>
       <c r="L34">
-        <v>306</v>
+        <v>29</v>
       </c>
       <c r="M34">
-        <v>306</v>
+        <v>29</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2158,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>424</v>
+        <v>36</v>
       </c>
     </row>
     <row r="35" spans="10:17">
@@ -2166,13 +2139,13 @@
         <v>60</v>
       </c>
       <c r="K35">
-        <v>0.4166666666666667</v>
+        <v>0.44</v>
       </c>
       <c r="L35">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="M35">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2184,7 +2157,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>28</v>
+        <v>56</v>
       </c>
     </row>
     <row r="36" spans="10:17">
@@ -2192,13 +2165,13 @@
         <v>61</v>
       </c>
       <c r="K36">
-        <v>0.4144144144144144</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="L36">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="M36">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2210,7 +2183,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>65</v>
+        <v>36</v>
       </c>
     </row>
     <row r="37" spans="10:17">
@@ -2218,13 +2191,13 @@
         <v>62</v>
       </c>
       <c r="K37">
-        <v>0.4107142857142857</v>
+        <v>0.4136986301369863</v>
       </c>
       <c r="L37">
-        <v>23</v>
+        <v>302</v>
       </c>
       <c r="M37">
-        <v>23</v>
+        <v>302</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2236,7 +2209,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>33</v>
+        <v>428</v>
       </c>
     </row>
     <row r="38" spans="10:17">
@@ -2244,13 +2217,13 @@
         <v>63</v>
       </c>
       <c r="K38">
-        <v>0.4102564102564102</v>
+        <v>0.4085603112840467</v>
       </c>
       <c r="L38">
-        <v>16</v>
+        <v>105</v>
       </c>
       <c r="M38">
-        <v>16</v>
+        <v>105</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2262,7 +2235,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>23</v>
+        <v>152</v>
       </c>
     </row>
     <row r="39" spans="10:17">
@@ -2270,13 +2243,13 @@
         <v>64</v>
       </c>
       <c r="K39">
-        <v>0.4093137254901961</v>
+        <v>0.3673469387755102</v>
       </c>
       <c r="L39">
-        <v>167</v>
+        <v>18</v>
       </c>
       <c r="M39">
-        <v>167</v>
+        <v>18</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2288,7 +2261,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>241</v>
+        <v>31</v>
       </c>
     </row>
     <row r="40" spans="10:17">
@@ -2296,13 +2269,13 @@
         <v>65</v>
       </c>
       <c r="K40">
-        <v>0.4081632653061225</v>
+        <v>0.3580246913580247</v>
       </c>
       <c r="L40">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="M40">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2314,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>29</v>
+        <v>52</v>
       </c>
     </row>
     <row r="41" spans="10:17">
@@ -2322,25 +2295,25 @@
         <v>66</v>
       </c>
       <c r="K41">
-        <v>0.4032258064516129</v>
+        <v>0.3557692307692308</v>
       </c>
       <c r="L41">
-        <v>25</v>
+        <v>74</v>
       </c>
       <c r="M41">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="N41">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O41">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P41" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q41">
-        <v>37</v>
+        <v>134</v>
       </c>
     </row>
     <row r="42" spans="10:17">
@@ -2348,13 +2321,13 @@
         <v>67</v>
       </c>
       <c r="K42">
-        <v>0.3846153846153846</v>
+        <v>0.3533834586466165</v>
       </c>
       <c r="L42">
-        <v>15</v>
+        <v>47</v>
       </c>
       <c r="M42">
-        <v>15</v>
+        <v>47</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2366,7 +2339,7 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>24</v>
+        <v>86</v>
       </c>
     </row>
     <row r="43" spans="10:17">
@@ -2374,13 +2347,13 @@
         <v>68</v>
       </c>
       <c r="K43">
-        <v>0.3809523809523809</v>
+        <v>0.3421052631578947</v>
       </c>
       <c r="L43">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="M43">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2392,7 +2365,7 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>39</v>
+        <v>50</v>
       </c>
     </row>
     <row r="44" spans="10:17">
@@ -2400,13 +2373,13 @@
         <v>69</v>
       </c>
       <c r="K44">
-        <v>0.3636363636363636</v>
+        <v>0.3243243243243243</v>
       </c>
       <c r="L44">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="M44">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2418,7 +2391,7 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>133</v>
+        <v>75</v>
       </c>
     </row>
     <row r="45" spans="10:17">
@@ -2426,13 +2399,13 @@
         <v>70</v>
       </c>
       <c r="K45">
-        <v>0.3609022556390977</v>
+        <v>0.3214285714285715</v>
       </c>
       <c r="L45">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="M45">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2444,7 +2417,7 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>85</v>
+        <v>57</v>
       </c>
     </row>
     <row r="46" spans="10:17">
@@ -2452,13 +2425,13 @@
         <v>71</v>
       </c>
       <c r="K46">
-        <v>0.3509933774834437</v>
+        <v>0.3186221743810549</v>
       </c>
       <c r="L46">
-        <v>53</v>
+        <v>296</v>
       </c>
       <c r="M46">
-        <v>53</v>
+        <v>296</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -2470,7 +2443,7 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>98</v>
+        <v>633</v>
       </c>
     </row>
     <row r="47" spans="10:17">
@@ -2478,13 +2451,13 @@
         <v>72</v>
       </c>
       <c r="K47">
-        <v>0.3421052631578947</v>
+        <v>0.3168316831683168</v>
       </c>
       <c r="L47">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="M47">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -2496,7 +2469,7 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>50</v>
+        <v>69</v>
       </c>
     </row>
     <row r="48" spans="10:17">
@@ -2504,13 +2477,13 @@
         <v>73</v>
       </c>
       <c r="K48">
-        <v>0.3381294964028777</v>
+        <v>0.316546762589928</v>
       </c>
       <c r="L48">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="M48">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -2522,7 +2495,7 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>92</v>
+        <v>95</v>
       </c>
     </row>
     <row r="49" spans="10:17">
@@ -2530,13 +2503,13 @@
         <v>74</v>
       </c>
       <c r="K49">
-        <v>0.3333333333333333</v>
+        <v>0.3064516129032258</v>
       </c>
       <c r="L49">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="M49">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -2548,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>34</v>
+        <v>43</v>
       </c>
     </row>
     <row r="50" spans="10:17">
@@ -2556,13 +2529,13 @@
         <v>75</v>
       </c>
       <c r="K50">
-        <v>0.3278688524590164</v>
+        <v>0.3063063063063063</v>
       </c>
       <c r="L50">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="M50">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -2574,7 +2547,7 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>41</v>
+        <v>77</v>
       </c>
     </row>
     <row r="51" spans="10:17">
@@ -2582,7 +2555,7 @@
         <v>76</v>
       </c>
       <c r="K51">
-        <v>0.3267326732673267</v>
+        <v>0.3055555555555556</v>
       </c>
       <c r="L51">
         <v>33</v>
@@ -2600,7 +2573,7 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>68</v>
+        <v>75</v>
       </c>
     </row>
     <row r="52" spans="10:17">
@@ -2608,13 +2581,13 @@
         <v>77</v>
       </c>
       <c r="K52">
-        <v>0.3265306122448979</v>
+        <v>0.2980132450331126</v>
       </c>
       <c r="L52">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="M52">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -2626,7 +2599,7 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>33</v>
+        <v>106</v>
       </c>
     </row>
     <row r="53" spans="10:17">
@@ -2634,13 +2607,13 @@
         <v>78</v>
       </c>
       <c r="K53">
-        <v>0.3166666666666667</v>
+        <v>0.2940397350993377</v>
       </c>
       <c r="L53">
-        <v>19</v>
+        <v>222</v>
       </c>
       <c r="M53">
-        <v>19</v>
+        <v>222</v>
       </c>
       <c r="N53">
         <v>1</v>
@@ -2652,7 +2625,7 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>41</v>
+        <v>533</v>
       </c>
     </row>
     <row r="54" spans="10:17">
@@ -2660,13 +2633,13 @@
         <v>79</v>
       </c>
       <c r="K54">
-        <v>0.3121636167922497</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L54">
-        <v>290</v>
+        <v>16</v>
       </c>
       <c r="M54">
-        <v>290</v>
+        <v>16</v>
       </c>
       <c r="N54">
         <v>1</v>
@@ -2678,7 +2651,7 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>639</v>
+        <v>40</v>
       </c>
     </row>
     <row r="55" spans="10:17">
@@ -2686,25 +2659,25 @@
         <v>80</v>
       </c>
       <c r="K55">
-        <v>0.3063063063063063</v>
+        <v>0.2789203084832905</v>
       </c>
       <c r="L55">
-        <v>34</v>
+        <v>217</v>
       </c>
       <c r="M55">
-        <v>34</v>
+        <v>221</v>
       </c>
       <c r="N55">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O55">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q55">
-        <v>77</v>
+        <v>561</v>
       </c>
     </row>
     <row r="56" spans="10:17">
@@ -2712,25 +2685,25 @@
         <v>81</v>
       </c>
       <c r="K56">
-        <v>0.2976190476190476</v>
+        <v>0.2686567164179104</v>
       </c>
       <c r="L56">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="M56">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="N56">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="O56">
-        <v>0</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P56" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q56">
-        <v>59</v>
+        <v>49</v>
       </c>
     </row>
     <row r="57" spans="10:17">
@@ -2738,25 +2711,25 @@
         <v>82</v>
       </c>
       <c r="K57">
-        <v>0.2962962962962963</v>
+        <v>0.2578616352201258</v>
       </c>
       <c r="L57">
-        <v>24</v>
+        <v>82</v>
       </c>
       <c r="M57">
-        <v>24</v>
+        <v>83</v>
       </c>
       <c r="N57">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O57">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P57" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q57">
-        <v>57</v>
+        <v>236</v>
       </c>
     </row>
     <row r="58" spans="10:17">
@@ -2764,25 +2737,25 @@
         <v>83</v>
       </c>
       <c r="K58">
-        <v>0.2956298200514139</v>
+        <v>0.2571428571428571</v>
       </c>
       <c r="L58">
-        <v>230</v>
+        <v>117</v>
       </c>
       <c r="M58">
-        <v>234</v>
+        <v>118</v>
       </c>
       <c r="N58">
-        <v>0.98</v>
+        <v>0.99</v>
       </c>
       <c r="O58">
-        <v>0.02000000000000002</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P58" t="b">
         <v>1</v>
       </c>
       <c r="Q58">
-        <v>548</v>
+        <v>338</v>
       </c>
     </row>
     <row r="59" spans="10:17">
@@ -2790,13 +2763,13 @@
         <v>84</v>
       </c>
       <c r="K59">
-        <v>0.2913907284768212</v>
+        <v>0.25</v>
       </c>
       <c r="L59">
-        <v>220</v>
+        <v>15</v>
       </c>
       <c r="M59">
-        <v>220</v>
+        <v>15</v>
       </c>
       <c r="N59">
         <v>1</v>
@@ -2808,7 +2781,7 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>535</v>
+        <v>45</v>
       </c>
     </row>
     <row r="60" spans="10:17">
@@ -2816,13 +2789,13 @@
         <v>85</v>
       </c>
       <c r="K60">
-        <v>0.287037037037037</v>
+        <v>0.2483221476510067</v>
       </c>
       <c r="L60">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="M60">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="N60">
         <v>1</v>
@@ -2834,7 +2807,7 @@
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>77</v>
+        <v>112</v>
       </c>
     </row>
     <row r="61" spans="10:17">
@@ -2842,25 +2815,25 @@
         <v>86</v>
       </c>
       <c r="K61">
-        <v>0.2647058823529412</v>
+        <v>0.2445652173913044</v>
       </c>
       <c r="L61">
-        <v>18</v>
+        <v>90</v>
       </c>
       <c r="M61">
-        <v>18</v>
+        <v>93</v>
       </c>
       <c r="N61">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O61">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P61" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q61">
-        <v>50</v>
+        <v>278</v>
       </c>
     </row>
     <row r="62" spans="10:17">
@@ -2868,13 +2841,13 @@
         <v>87</v>
       </c>
       <c r="K62">
-        <v>0.2633228840125392</v>
+        <v>0.2377049180327869</v>
       </c>
       <c r="L62">
-        <v>84</v>
+        <v>29</v>
       </c>
       <c r="M62">
-        <v>84</v>
+        <v>29</v>
       </c>
       <c r="N62">
         <v>1</v>
@@ -2886,7 +2859,7 @@
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>235</v>
+        <v>93</v>
       </c>
     </row>
     <row r="63" spans="10:17">
@@ -2894,25 +2867,25 @@
         <v>88</v>
       </c>
       <c r="K63">
-        <v>0.2608695652173913</v>
+        <v>0.2248803827751196</v>
       </c>
       <c r="L63">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="M63">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="N63">
-        <v>0.97</v>
+        <v>0.99</v>
       </c>
       <c r="O63">
-        <v>0.03000000000000003</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P63" t="b">
         <v>1</v>
       </c>
       <c r="Q63">
-        <v>272</v>
+        <v>324</v>
       </c>
     </row>
     <row r="64" spans="10:17">
@@ -2920,25 +2893,25 @@
         <v>89</v>
       </c>
       <c r="K64">
-        <v>0.2476190476190476</v>
+        <v>0.2227722772277228</v>
       </c>
       <c r="L64">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="M64">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="N64">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O64">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q64">
-        <v>79</v>
+        <v>157</v>
       </c>
     </row>
     <row r="65" spans="10:17">
@@ -2946,25 +2919,25 @@
         <v>90</v>
       </c>
       <c r="K65">
-        <v>0.2439024390243902</v>
+        <v>0.2208588957055215</v>
       </c>
       <c r="L65">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="M65">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="N65">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O65">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q65">
-        <v>124</v>
+        <v>127</v>
       </c>
     </row>
     <row r="66" spans="10:17">
@@ -2972,13 +2945,13 @@
         <v>91</v>
       </c>
       <c r="K66">
-        <v>0.2348993288590604</v>
+        <v>0.22</v>
       </c>
       <c r="L66">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="M66">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="N66">
         <v>1</v>
@@ -2990,7 +2963,7 @@
         <v>0</v>
       </c>
       <c r="Q66">
-        <v>114</v>
+        <v>78</v>
       </c>
     </row>
     <row r="67" spans="10:17">
@@ -2998,13 +2971,13 @@
         <v>92</v>
       </c>
       <c r="K67">
-        <v>0.2258771929824561</v>
+        <v>0.2117647058823529</v>
       </c>
       <c r="L67">
-        <v>103</v>
+        <v>18</v>
       </c>
       <c r="M67">
-        <v>103</v>
+        <v>18</v>
       </c>
       <c r="N67">
         <v>1</v>
@@ -3016,7 +2989,7 @@
         <v>0</v>
       </c>
       <c r="Q67">
-        <v>353</v>
+        <v>67</v>
       </c>
     </row>
     <row r="68" spans="10:17">
@@ -3024,13 +2997,13 @@
         <v>93</v>
       </c>
       <c r="K68">
-        <v>0.2230769230769231</v>
+        <v>0.2103321033210332</v>
       </c>
       <c r="L68">
-        <v>29</v>
+        <v>57</v>
       </c>
       <c r="M68">
-        <v>29</v>
+        <v>57</v>
       </c>
       <c r="N68">
         <v>1</v>
@@ -3042,7 +3015,7 @@
         <v>0</v>
       </c>
       <c r="Q68">
-        <v>101</v>
+        <v>214</v>
       </c>
     </row>
     <row r="69" spans="10:17">
@@ -3050,25 +3023,25 @@
         <v>94</v>
       </c>
       <c r="K69">
-        <v>0.2222222222222222</v>
+        <v>0.2053571428571428</v>
       </c>
       <c r="L69">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="M69">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="N69">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O69">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P69" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q69">
-        <v>56</v>
+        <v>89</v>
       </c>
     </row>
     <row r="70" spans="10:17">
@@ -3076,13 +3049,13 @@
         <v>95</v>
       </c>
       <c r="K70">
-        <v>0.2159090909090909</v>
+        <v>0.2</v>
       </c>
       <c r="L70">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M70">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="N70">
         <v>1</v>
@@ -3094,7 +3067,7 @@
         <v>0</v>
       </c>
       <c r="Q70">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="71" spans="10:17">
@@ -3102,25 +3075,25 @@
         <v>96</v>
       </c>
       <c r="K71">
-        <v>0.2142857142857143</v>
+        <v>0.2</v>
       </c>
       <c r="L71">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="M71">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="N71">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O71">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P71" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q71">
-        <v>66</v>
+        <v>84</v>
       </c>
     </row>
     <row r="72" spans="10:17">
@@ -3128,25 +3101,25 @@
         <v>97</v>
       </c>
       <c r="K72">
-        <v>0.2132352941176471</v>
+        <v>0.1982758620689655</v>
       </c>
       <c r="L72">
-        <v>87</v>
+        <v>23</v>
       </c>
       <c r="M72">
-        <v>90</v>
+        <v>24</v>
       </c>
       <c r="N72">
-        <v>0.97</v>
+        <v>0.96</v>
       </c>
       <c r="O72">
-        <v>0.03000000000000003</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P72" t="b">
         <v>1</v>
       </c>
       <c r="Q72">
-        <v>321</v>
+        <v>93</v>
       </c>
     </row>
     <row r="73" spans="10:17">
@@ -3154,25 +3127,25 @@
         <v>98</v>
       </c>
       <c r="K73">
-        <v>0.211031175059952</v>
+        <v>0.1981776765375854</v>
       </c>
       <c r="L73">
+        <v>87</v>
+      </c>
+      <c r="M73">
         <v>88</v>
       </c>
-      <c r="M73">
-        <v>90</v>
-      </c>
       <c r="N73">
-        <v>0.98</v>
+        <v>0.99</v>
       </c>
       <c r="O73">
-        <v>0.02000000000000002</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P73" t="b">
         <v>1</v>
       </c>
       <c r="Q73">
-        <v>329</v>
+        <v>352</v>
       </c>
     </row>
     <row r="74" spans="10:17">
@@ -3180,25 +3153,25 @@
         <v>99</v>
       </c>
       <c r="K74">
-        <v>0.2074074074074074</v>
+        <v>0.1948051948051948</v>
       </c>
       <c r="L74">
-        <v>56</v>
+        <v>15</v>
       </c>
       <c r="M74">
-        <v>57</v>
+        <v>15</v>
       </c>
       <c r="N74">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O74">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P74" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q74">
-        <v>214</v>
+        <v>62</v>
       </c>
     </row>
     <row r="75" spans="10:17">
@@ -3206,25 +3179,25 @@
         <v>100</v>
       </c>
       <c r="K75">
-        <v>0.2053571428571428</v>
+        <v>0.1923076923076923</v>
       </c>
       <c r="L75">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="M75">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N75">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O75">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P75" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q75">
-        <v>89</v>
+        <v>105</v>
       </c>
     </row>
     <row r="76" spans="10:17">
@@ -3232,25 +3205,25 @@
         <v>101</v>
       </c>
       <c r="K76">
-        <v>0.2031963470319635</v>
+        <v>0.1751412429378531</v>
       </c>
       <c r="L76">
-        <v>89</v>
+        <v>31</v>
       </c>
       <c r="M76">
-        <v>91</v>
+        <v>31</v>
       </c>
       <c r="N76">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O76">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P76" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q76">
-        <v>349</v>
+        <v>146</v>
       </c>
     </row>
     <row r="77" spans="10:17">
@@ -3258,7 +3231,7 @@
         <v>102</v>
       </c>
       <c r="K77">
-        <v>0.1919191919191919</v>
+        <v>0.1743119266055046</v>
       </c>
       <c r="L77">
         <v>19</v>
@@ -3276,7 +3249,7 @@
         <v>0</v>
       </c>
       <c r="Q77">
-        <v>80</v>
+        <v>90</v>
       </c>
     </row>
     <row r="78" spans="10:17">
@@ -3284,13 +3257,13 @@
         <v>103</v>
       </c>
       <c r="K78">
-        <v>0.1908396946564886</v>
+        <v>0.1739130434782609</v>
       </c>
       <c r="L78">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="M78">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="N78">
         <v>1</v>
@@ -3302,7 +3275,7 @@
         <v>0</v>
       </c>
       <c r="Q78">
-        <v>106</v>
+        <v>76</v>
       </c>
     </row>
     <row r="79" spans="10:17">
@@ -3310,13 +3283,13 @@
         <v>104</v>
       </c>
       <c r="K79">
-        <v>0.1882352941176471</v>
+        <v>0.1717171717171717</v>
       </c>
       <c r="L79">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M79">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="N79">
         <v>1</v>
@@ -3328,7 +3301,7 @@
         <v>0</v>
       </c>
       <c r="Q79">
-        <v>69</v>
+        <v>82</v>
       </c>
     </row>
     <row r="80" spans="10:17">
@@ -3336,25 +3309,25 @@
         <v>105</v>
       </c>
       <c r="K80">
-        <v>0.1847826086956522</v>
+        <v>0.1687763713080169</v>
       </c>
       <c r="L80">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="M80">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="N80">
-        <v>0.9399999999999999</v>
+        <v>0.98</v>
       </c>
       <c r="O80">
-        <v>0.06000000000000005</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P80" t="b">
         <v>1</v>
       </c>
       <c r="Q80">
-        <v>75</v>
+        <v>197</v>
       </c>
     </row>
     <row r="81" spans="10:17">
@@ -3362,25 +3335,25 @@
         <v>106</v>
       </c>
       <c r="K81">
-        <v>0.1810344827586207</v>
+        <v>0.1627906976744186</v>
       </c>
       <c r="L81">
         <v>21</v>
       </c>
       <c r="M81">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N81">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O81">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P81" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q81">
-        <v>95</v>
+        <v>108</v>
       </c>
     </row>
     <row r="82" spans="10:17">
@@ -3388,25 +3361,25 @@
         <v>107</v>
       </c>
       <c r="K82">
-        <v>0.1691542288557214</v>
+        <v>0.1605839416058394</v>
       </c>
       <c r="L82">
-        <v>34</v>
+        <v>66</v>
       </c>
       <c r="M82">
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="N82">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O82">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P82" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q82">
-        <v>167</v>
+        <v>345</v>
       </c>
     </row>
     <row r="83" spans="10:17">
@@ -3414,25 +3387,25 @@
         <v>108</v>
       </c>
       <c r="K83">
-        <v>0.1687763713080169</v>
+        <v>0.1538461538461539</v>
       </c>
       <c r="L83">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="M83">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="N83">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O83">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P83" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q83">
-        <v>197</v>
+        <v>132</v>
       </c>
     </row>
     <row r="84" spans="10:17">
@@ -3440,25 +3413,25 @@
         <v>109</v>
       </c>
       <c r="K84">
-        <v>0.1666666666666667</v>
+        <v>0.1487889273356401</v>
       </c>
       <c r="L84">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="M84">
         <v>45</v>
       </c>
       <c r="N84">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O84">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P84" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q84">
-        <v>225</v>
+        <v>246</v>
       </c>
     </row>
     <row r="85" spans="10:17">
@@ -3466,25 +3439,25 @@
         <v>110</v>
       </c>
       <c r="K85">
-        <v>0.1651376146788991</v>
+        <v>0.1468531468531468</v>
       </c>
       <c r="L85">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="M85">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="N85">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="O85">
-        <v>0</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P85" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q85">
-        <v>91</v>
+        <v>122</v>
       </c>
     </row>
     <row r="86" spans="10:17">
@@ -3492,25 +3465,25 @@
         <v>111</v>
       </c>
       <c r="K86">
-        <v>0.1612903225806452</v>
+        <v>0.1420765027322404</v>
       </c>
       <c r="L86">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="M86">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="N86">
-        <v>0.91</v>
+        <v>1</v>
       </c>
       <c r="O86">
-        <v>0.08999999999999997</v>
+        <v>0</v>
       </c>
       <c r="P86" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q86">
-        <v>104</v>
+        <v>314</v>
       </c>
     </row>
     <row r="87" spans="10:17">
@@ -3518,25 +3491,25 @@
         <v>112</v>
       </c>
       <c r="K87">
-        <v>0.16</v>
+        <v>0.1363636363636364</v>
       </c>
       <c r="L87">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M87">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="N87">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="O87">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="P87" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q87">
-        <v>84</v>
+        <v>95</v>
       </c>
     </row>
     <row r="88" spans="10:17">
@@ -3544,25 +3517,25 @@
         <v>113</v>
       </c>
       <c r="K88">
-        <v>0.1525423728813559</v>
+        <v>0.1356407857811038</v>
       </c>
       <c r="L88">
-        <v>27</v>
+        <v>145</v>
       </c>
       <c r="M88">
-        <v>27</v>
+        <v>148</v>
       </c>
       <c r="N88">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O88">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P88" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q88">
-        <v>150</v>
+        <v>924</v>
       </c>
     </row>
     <row r="89" spans="10:17">
@@ -3570,25 +3543,25 @@
         <v>114</v>
       </c>
       <c r="K89">
-        <v>0.1475409836065574</v>
+        <v>0.1301115241635688</v>
       </c>
       <c r="L89">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="M89">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="N89">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O89">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P89" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q89">
-        <v>104</v>
+        <v>234</v>
       </c>
     </row>
     <row r="90" spans="10:17">
@@ -3596,25 +3569,25 @@
         <v>115</v>
       </c>
       <c r="K90">
-        <v>0.1458333333333333</v>
+        <v>0.1288343558282209</v>
       </c>
       <c r="L90">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="M90">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="N90">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O90">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P90" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q90">
-        <v>246</v>
+        <v>142</v>
       </c>
     </row>
     <row r="91" spans="10:17">
@@ -3622,25 +3595,25 @@
         <v>116</v>
       </c>
       <c r="K91">
-        <v>0.1433926897844424</v>
+        <v>0.125</v>
       </c>
       <c r="L91">
-        <v>153</v>
+        <v>31</v>
       </c>
       <c r="M91">
-        <v>158</v>
+        <v>31</v>
       </c>
       <c r="N91">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O91">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P91" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q91">
-        <v>914</v>
+        <v>217</v>
       </c>
     </row>
     <row r="92" spans="10:17">
@@ -3648,25 +3621,25 @@
         <v>117</v>
       </c>
       <c r="K92">
-        <v>0.1381294964028777</v>
+        <v>0.125</v>
       </c>
       <c r="L92">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="M92">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="N92">
-        <v>0.97</v>
+        <v>0.98</v>
       </c>
       <c r="O92">
-        <v>0.03000000000000003</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P92" t="b">
         <v>1</v>
       </c>
       <c r="Q92">
-        <v>599</v>
+        <v>609</v>
       </c>
     </row>
     <row r="93" spans="10:17">
@@ -3674,13 +3647,13 @@
         <v>118</v>
       </c>
       <c r="K93">
-        <v>0.133879781420765</v>
+        <v>0.1221374045801527</v>
       </c>
       <c r="L93">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="M93">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="N93">
         <v>1</v>
@@ -3692,7 +3665,7 @@
         <v>0</v>
       </c>
       <c r="Q93">
-        <v>317</v>
+        <v>115</v>
       </c>
     </row>
     <row r="94" spans="10:17">
@@ -3700,25 +3673,25 @@
         <v>119</v>
       </c>
       <c r="K94">
-        <v>0.1317829457364341</v>
+        <v>0.1148148148148148</v>
       </c>
       <c r="L94">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="M94">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="N94">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O94">
-        <v>0</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P94" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q94">
-        <v>112</v>
+        <v>239</v>
       </c>
     </row>
     <row r="95" spans="10:17">
@@ -3726,25 +3699,25 @@
         <v>120</v>
       </c>
       <c r="K95">
-        <v>0.1288343558282209</v>
+        <v>0.1092896174863388</v>
       </c>
       <c r="L95">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M95">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N95">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="O95">
-        <v>0</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="P95" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q95">
-        <v>142</v>
+        <v>163</v>
       </c>
     </row>
     <row r="96" spans="10:17">
@@ -3752,22 +3725,22 @@
         <v>121</v>
       </c>
       <c r="K96">
-        <v>0.1282051282051282</v>
+        <v>0.1052631578947368</v>
       </c>
       <c r="L96">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="M96">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="N96">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O96">
-        <v>0</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P96" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q96">
         <v>136</v>
@@ -3778,13 +3751,13 @@
         <v>122</v>
       </c>
       <c r="K97">
-        <v>0.125</v>
+        <v>0.1038961038961039</v>
       </c>
       <c r="L97">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="M97">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="N97">
         <v>1</v>
@@ -3796,7 +3769,7 @@
         <v>0</v>
       </c>
       <c r="Q97">
-        <v>182</v>
+        <v>138</v>
       </c>
     </row>
     <row r="98" spans="10:17">
@@ -3804,25 +3777,25 @@
         <v>123</v>
       </c>
       <c r="K98">
-        <v>0.1212121212121212</v>
+        <v>0.09223300970873786</v>
       </c>
       <c r="L98">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M98">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N98">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="O98">
-        <v>0</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="P98" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q98">
-        <v>145</v>
+        <v>187</v>
       </c>
     </row>
     <row r="99" spans="10:17">
@@ -3830,25 +3803,25 @@
         <v>124</v>
       </c>
       <c r="K99">
-        <v>0.1199226305609284</v>
+        <v>0.0893854748603352</v>
       </c>
       <c r="L99">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="M99">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="N99">
-        <v>0.93</v>
+        <v>0.91</v>
       </c>
       <c r="O99">
-        <v>0.06999999999999995</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="P99" t="b">
         <v>1</v>
       </c>
       <c r="Q99">
-        <v>455</v>
+        <v>489</v>
       </c>
     </row>
     <row r="100" spans="10:17">
@@ -3856,25 +3829,25 @@
         <v>125</v>
       </c>
       <c r="K100">
-        <v>0.1176470588235294</v>
+        <v>0.08695652173913043</v>
       </c>
       <c r="L100">
-        <v>18</v>
+        <v>100</v>
       </c>
       <c r="M100">
-        <v>18</v>
+        <v>107</v>
       </c>
       <c r="N100">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="O100">
-        <v>0</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P100" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q100">
-        <v>135</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="101" spans="10:17">
@@ -3882,13 +3855,13 @@
         <v>126</v>
       </c>
       <c r="K101">
-        <v>0.1118881118881119</v>
+        <v>0.08620689655172414</v>
       </c>
       <c r="L101">
+        <v>15</v>
+      </c>
+      <c r="M101">
         <v>16</v>
-      </c>
-      <c r="M101">
-        <v>17</v>
       </c>
       <c r="N101">
         <v>0.9399999999999999</v>
@@ -3900,7 +3873,7 @@
         <v>1</v>
       </c>
       <c r="Q101">
-        <v>127</v>
+        <v>159</v>
       </c>
     </row>
     <row r="102" spans="10:17">
@@ -3908,25 +3881,25 @@
         <v>127</v>
       </c>
       <c r="K102">
-        <v>0.1111111111111111</v>
+        <v>0.08505154639175258</v>
       </c>
       <c r="L102">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="M102">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="N102">
-        <v>1</v>
+        <v>0.85</v>
       </c>
       <c r="O102">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="P102" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q102">
-        <v>136</v>
+        <v>355</v>
       </c>
     </row>
     <row r="103" spans="10:17">
@@ -3934,25 +3907,25 @@
         <v>128</v>
       </c>
       <c r="K103">
-        <v>0.1069182389937107</v>
+        <v>0.08055555555555556</v>
       </c>
       <c r="L103">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="M103">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="N103">
-        <v>0.9399999999999999</v>
+        <v>0.85</v>
       </c>
       <c r="O103">
-        <v>0.06000000000000005</v>
+        <v>0.15</v>
       </c>
       <c r="P103" t="b">
         <v>1</v>
       </c>
       <c r="Q103">
-        <v>142</v>
+        <v>331</v>
       </c>
     </row>
     <row r="104" spans="10:17">
@@ -3960,25 +3933,25 @@
         <v>129</v>
       </c>
       <c r="K104">
-        <v>0.1048387096774194</v>
+        <v>0.08009708737864078</v>
       </c>
       <c r="L104">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="M104">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="N104">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O104">
-        <v>0</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P104" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q104">
-        <v>222</v>
+        <v>379</v>
       </c>
     </row>
     <row r="105" spans="10:17">
@@ -3986,25 +3959,25 @@
         <v>130</v>
       </c>
       <c r="K105">
-        <v>0.1020052310374891</v>
+        <v>0.07983193277310924</v>
       </c>
       <c r="L105">
-        <v>117</v>
+        <v>19</v>
       </c>
       <c r="M105">
-        <v>127</v>
+        <v>20</v>
       </c>
       <c r="N105">
-        <v>0.92</v>
+        <v>0.95</v>
       </c>
       <c r="O105">
-        <v>0.07999999999999996</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P105" t="b">
         <v>1</v>
       </c>
       <c r="Q105">
-        <v>1030</v>
+        <v>219</v>
       </c>
     </row>
     <row r="106" spans="10:17">
@@ -4012,389 +3985,181 @@
         <v>131</v>
       </c>
       <c r="K106">
-        <v>0.1018518518518518</v>
+        <v>0.07321772639691715</v>
       </c>
       <c r="L106">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="M106">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="N106">
-        <v>0.96</v>
+        <v>0.93</v>
       </c>
       <c r="O106">
-        <v>0.04000000000000004</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P106" t="b">
         <v>1</v>
       </c>
       <c r="Q106">
-        <v>485</v>
+        <v>481</v>
       </c>
     </row>
     <row r="107" spans="10:17">
       <c r="J107" s="1" t="s">
-        <v>132</v>
+        <v>25</v>
       </c>
       <c r="K107">
-        <v>0.09836065573770492</v>
+        <v>0.05932203389830509</v>
       </c>
       <c r="L107">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="M107">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="N107">
-        <v>0.9</v>
+        <v>0.55</v>
       </c>
       <c r="O107">
-        <v>0.09999999999999998</v>
+        <v>0.45</v>
       </c>
       <c r="P107" t="b">
         <v>1</v>
       </c>
       <c r="Q107">
-        <v>165</v>
+        <v>333</v>
       </c>
     </row>
     <row r="108" spans="10:17">
       <c r="J108" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K108">
-        <v>0.08695652173913043</v>
+        <v>0.05830903790087463</v>
       </c>
       <c r="L108">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="M108">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="N108">
-        <v>0.92</v>
+        <v>0.91</v>
       </c>
       <c r="O108">
-        <v>0.07999999999999996</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="P108" t="b">
         <v>1</v>
       </c>
       <c r="Q108">
-        <v>357</v>
+        <v>323</v>
       </c>
     </row>
     <row r="109" spans="10:17">
       <c r="J109" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K109">
-        <v>0.08205128205128205</v>
+        <v>0.05802047781569966</v>
       </c>
       <c r="L109">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M109">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="N109">
-        <v>0.84</v>
+        <v>0.74</v>
       </c>
       <c r="O109">
-        <v>0.16</v>
+        <v>0.26</v>
       </c>
       <c r="P109" t="b">
         <v>1</v>
       </c>
       <c r="Q109">
-        <v>179</v>
+        <v>276</v>
       </c>
     </row>
     <row r="110" spans="10:17">
       <c r="J110" s="1" t="s">
-        <v>135</v>
+        <v>26</v>
       </c>
       <c r="K110">
-        <v>0.08021390374331551</v>
+        <v>0.05740987983978638</v>
       </c>
       <c r="L110">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="M110">
-        <v>18</v>
+        <v>61</v>
       </c>
       <c r="N110">
-        <v>0.83</v>
+        <v>0.7</v>
       </c>
       <c r="O110">
-        <v>0.17</v>
+        <v>0.3</v>
       </c>
       <c r="P110" t="b">
         <v>1</v>
       </c>
       <c r="Q110">
-        <v>172</v>
+        <v>706</v>
       </c>
     </row>
     <row r="111" spans="10:17">
       <c r="J111" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="K111">
-        <v>0.07531380753138076</v>
+        <v>0.05202312138728324</v>
       </c>
       <c r="L111">
         <v>18</v>
       </c>
       <c r="M111">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="N111">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="O111">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="P111" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q111">
-        <v>221</v>
+        <v>328</v>
       </c>
     </row>
     <row r="112" spans="10:17">
       <c r="J112" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="K112">
-        <v>0.07352941176470588</v>
+        <v>0.02900552486187845</v>
       </c>
       <c r="L112">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M112">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="N112">
-        <v>1</v>
+        <v>0.66</v>
       </c>
       <c r="O112">
-        <v>0</v>
+        <v>0.34</v>
       </c>
       <c r="P112" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q112">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="113" spans="10:17">
-      <c r="J113" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="K113">
-        <v>0.06920415224913495</v>
-      </c>
-      <c r="L113">
-        <v>20</v>
-      </c>
-      <c r="M113">
-        <v>30</v>
-      </c>
-      <c r="N113">
-        <v>0.67</v>
-      </c>
-      <c r="O113">
-        <v>0.33</v>
-      </c>
-      <c r="P113" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q113">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="114" spans="10:17">
-      <c r="J114" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="K114">
-        <v>0.06617647058823529</v>
-      </c>
-      <c r="L114">
-        <v>27</v>
-      </c>
-      <c r="M114">
-        <v>33</v>
-      </c>
-      <c r="N114">
-        <v>0.82</v>
-      </c>
-      <c r="O114">
-        <v>0.18</v>
-      </c>
-      <c r="P114" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q114">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="115" spans="10:17">
-      <c r="J115" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="K115">
-        <v>0.06353591160220995</v>
-      </c>
-      <c r="L115">
-        <v>23</v>
-      </c>
-      <c r="M115">
-        <v>32</v>
-      </c>
-      <c r="N115">
-        <v>0.72</v>
-      </c>
-      <c r="O115">
-        <v>0.28</v>
-      </c>
-      <c r="P115" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q115">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="116" spans="10:17">
-      <c r="J116" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="K116">
-        <v>0.06318681318681318</v>
-      </c>
-      <c r="L116">
-        <v>23</v>
-      </c>
-      <c r="M116">
-        <v>24</v>
-      </c>
-      <c r="N116">
-        <v>0.96</v>
-      </c>
-      <c r="O116">
-        <v>0.04000000000000004</v>
-      </c>
-      <c r="P116" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q116">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="117" spans="10:17">
-      <c r="J117" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="K117">
-        <v>0.04597701149425287</v>
-      </c>
-      <c r="L117">
-        <v>16</v>
-      </c>
-      <c r="M117">
-        <v>26</v>
-      </c>
-      <c r="N117">
-        <v>0.62</v>
-      </c>
-      <c r="O117">
-        <v>0.38</v>
-      </c>
-      <c r="P117" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q117">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="118" spans="10:17">
-      <c r="J118" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="K118">
-        <v>0.04411764705882353</v>
-      </c>
-      <c r="L118">
-        <v>15</v>
-      </c>
-      <c r="M118">
-        <v>20</v>
-      </c>
-      <c r="N118">
-        <v>0.75</v>
-      </c>
-      <c r="O118">
-        <v>0.25</v>
-      </c>
-      <c r="P118" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q118">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="119" spans="10:17">
-      <c r="J119" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="K119">
-        <v>0.03758389261744966</v>
-      </c>
-      <c r="L119">
-        <v>28</v>
-      </c>
-      <c r="M119">
-        <v>50</v>
-      </c>
-      <c r="N119">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="O119">
-        <v>0.4399999999999999</v>
-      </c>
-      <c r="P119" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q119">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="120" spans="10:17">
-      <c r="J120" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="K120">
-        <v>0.02617079889807163</v>
-      </c>
-      <c r="L120">
-        <v>19</v>
-      </c>
-      <c r="M120">
-        <v>28</v>
-      </c>
-      <c r="N120">
-        <v>0.68</v>
-      </c>
-      <c r="O120">
-        <v>0.32</v>
-      </c>
-      <c r="P120" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q120">
-        <v>707</v>
+        <v>703</v>
       </c>
     </row>
   </sheetData>
